--- a/listing_excel.xlsx
+++ b/listing_excel.xlsx
@@ -2,41 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinkoudela/Desktop/pythonProjects/python_excel_listing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B94B138-527C-8146-A8DA-453978505701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C301DE-D184-574B-BAC1-81C89F720B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{4B819B37-4FE2-E643-9BFB-1E8C4D0CA342}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Robo</t>
   </si>
@@ -50,22 +34,34 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Office</t>
+    <t>Zaměstnanec</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Lavonio</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Tesco</t>
+  </si>
+  <si>
+    <t>Edhouse</t>
+  </si>
+  <si>
+    <t>Istore</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Jakub</t>
   </si>
 </sst>
 </file>
@@ -129,15 +125,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,73 +474,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58196D14-E08F-E54E-8878-5517B2BCF270}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="5">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
